--- a/Star Trek Ship Prints.xlsx
+++ b/Star Trek Ship Prints.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\EAGLE\projects\DS9\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDF2095-73C3-49FD-87DB-16F971AB4DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11265" windowHeight="7200" activeTab="2"/>
+    <workbookView xWindow="29205" yWindow="2220" windowWidth="19305" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ships" sheetId="1" r:id="rId1"/>
@@ -19,17 +20,26 @@
   <definedNames>
     <definedName name="LEDs">'Led Pricing'!$A$1:$B$6</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="108">
   <si>
     <t>Length (m)</t>
   </si>
@@ -148,12 +158,6 @@
     <t>K'vort BOP</t>
   </si>
   <si>
-    <t>Cardassian Supply Ship</t>
-  </si>
-  <si>
-    <t>Bajoran vessel</t>
-  </si>
-  <si>
     <t>Ferengi shuttle</t>
   </si>
   <si>
@@ -290,12 +294,81 @@
   </si>
   <si>
     <t>0201</t>
+  </si>
+  <si>
+    <t>Test Print</t>
+  </si>
+  <si>
+    <t>Final Print</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Good Model</t>
+  </si>
+  <si>
+    <t>Romulan Shuttle</t>
+  </si>
+  <si>
+    <t>Delta Flyer</t>
+  </si>
+  <si>
+    <t>Possibly 15m, 21 seems more accurate</t>
+  </si>
+  <si>
+    <t>Estimate length</t>
+  </si>
+  <si>
+    <t>Jem'Hadar Fighter</t>
+  </si>
+  <si>
+    <t>Docking Port</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>Large, Pylon</t>
+  </si>
+  <si>
+    <t>Pylon</t>
+  </si>
+  <si>
+    <t>Shuttle</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Pylon, Large</t>
+  </si>
+  <si>
+    <t>170.68m in some sources</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Small?</t>
+  </si>
+  <si>
+    <t>Cardassian Groumali</t>
+  </si>
+  <si>
+    <t>Bajoran raider</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Faulty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -383,7 +456,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -393,10 +466,11 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -405,7 +479,27 @@
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -691,25 +785,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" customWidth="1"/>
+    <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -719,20 +816,35 @@
       <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="G1">
+      <c r="I1">
         <v>1</v>
       </c>
-      <c r="H1">
+      <c r="J1">
         <v>3300</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -740,7 +852,7 @@
         <v>1451.82</v>
       </c>
       <c r="C2" s="3">
-        <f>(B2/$H$1)*1000</f>
+        <f>(B2/$J$1)*1000</f>
         <v>439.94545454545454</v>
       </c>
       <c r="D2" s="3">
@@ -748,23 +860,32 @@
         <v>17.32069654</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>170.68</v>
+        <v>120</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" ref="C3:C57" si="0">(B3/$H$1)*1000</f>
-        <v>51.721212121212126</v>
+        <f t="shared" ref="C3:C57" si="0">(B3/$J$1)*1000</f>
+        <v>36.36363636363636</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D57" si="1">C3/10*0.393701</f>
-        <v>2.0362692933333335</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.4316399999999998</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -780,7 +901,7 @@
         <v>3.6387516666666668</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -795,8 +916,17 @@
         <f t="shared" si="1"/>
         <v>2.8990710000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+      <c r="L5" t="s">
+        <v>87</v>
+      </c>
+      <c r="M5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -811,8 +941,14 @@
         <f t="shared" si="1"/>
         <v>5.5714656666666666</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -828,7 +964,7 @@
         <v>7.6473436666666679</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -844,7 +980,7 @@
         <v>2.7559070000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
@@ -860,7 +996,7 @@
         <v>6.3851144000000017</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -876,8 +1012,8 @@
         <v>8.1722783333333346</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B11">
@@ -891,8 +1027,14 @@
         <f t="shared" si="1"/>
         <v>0.27559070000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
@@ -907,8 +1049,11 @@
         <f t="shared" si="1"/>
         <v>5.2759513099999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
@@ -923,8 +1068,14 @@
         <f t="shared" si="1"/>
         <v>4.4366523600000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>96</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -939,8 +1090,14 @@
         <f t="shared" si="1"/>
         <v>2.9229316666666669</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>103</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -956,7 +1113,7 @@
         <v>3.161538333333334</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -972,7 +1129,7 @@
         <v>4.628969333333333</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -988,7 +1145,7 @@
         <v>8.1403050400000012</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>20</v>
       </c>
@@ -1003,8 +1160,9 @@
         <f t="shared" si="1"/>
         <v>3.049989716666667</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1020,7 +1178,7 @@
         <v>12.42723171666667</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1036,7 +1194,7 @@
         <v>7.1581999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1052,7 +1210,7 @@
         <v>15.294687333333336</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
@@ -1067,8 +1225,11 @@
         <f t="shared" si="1"/>
         <v>4.628969333333333</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1084,7 +1245,7 @@
         <v>5.7423080400000011</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>26</v>
       </c>
@@ -1099,8 +1260,14 @@
         <f t="shared" si="1"/>
         <v>1.7992135699999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>100</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>28</v>
       </c>
@@ -1115,8 +1282,9 @@
         <f t="shared" si="1"/>
         <v>4.4366523600000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
@@ -1131,8 +1299,11 @@
         <f t="shared" si="1"/>
         <v>1.0233839933333335</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="L26" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>30</v>
       </c>
@@ -1148,7 +1319,7 @@
         <v>4.1040346666666672</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>31</v>
       </c>
@@ -1164,7 +1335,7 @@
         <v>6.2753553333333345</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1179,8 +1350,11 @@
         <f t="shared" si="1"/>
         <v>2.6454321133333338</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="L29" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1193,7 +1367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -1208,8 +1382,9 @@
         <f t="shared" si="1"/>
         <v>3.049989716666667</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>38</v>
       </c>
@@ -1225,7 +1400,7 @@
         <v>8.0930609199999992</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>34</v>
       </c>
@@ -1240,8 +1415,11 @@
         <f t="shared" si="1"/>
         <v>1.8821293866666666</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>35</v>
       </c>
@@ -1256,8 +1434,12 @@
         <f t="shared" si="1"/>
         <v>1.78955</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F34" s="6"/>
+      <c r="L34" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>36</v>
       </c>
@@ -1272,75 +1454,110 @@
         <f t="shared" si="1"/>
         <v>3.22119</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>95</v>
+      </c>
+      <c r="L35" t="s">
+        <v>87</v>
+      </c>
+      <c r="M35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36">
+        <v>255.65</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="0"/>
+        <v>77.469696969696969</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="1"/>
+        <v>3.049989716666667</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="L36" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37">
+        <v>33.1</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" si="0"/>
+        <v>10.030303030303029</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="1"/>
+        <v>0.39489403333333334</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D36" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D37" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>41</v>
+      <c r="B38">
+        <v>3.6</v>
       </c>
       <c r="C38" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0909090909090911</v>
       </c>
       <c r="D38" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+        <v>4.2949200000000007E-2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>92</v>
+      </c>
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="5">
+        <v>235</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="0"/>
+        <v>71.212121212121218</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="1"/>
+        <v>2.8036283333333336</v>
+      </c>
+      <c r="F39" t="s">
+        <v>95</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>69</v>
-      </c>
-      <c r="C39" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D39" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D40" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>71</v>
       </c>
       <c r="B41">
         <v>3037</v>
@@ -1354,37 +1571,74 @@
         <v>36.232422333333339</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42">
+        <v>24.23</v>
+      </c>
       <c r="C42" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.3424242424242427</v>
       </c>
       <c r="D42" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.28907197666666667</v>
+      </c>
+      <c r="F42" t="s">
+        <v>98</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43">
+        <v>21</v>
+      </c>
       <c r="C43" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.3636363636363642</v>
       </c>
       <c r="D43" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.25053700000000007</v>
+      </c>
+      <c r="E43" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" t="s">
+        <v>98</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44">
+        <v>90</v>
+      </c>
       <c r="C44" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="D44" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0737300000000001</v>
+      </c>
+      <c r="F44" s="6"/>
+      <c r="L44" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C45" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1394,7 +1648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C46" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1404,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C47" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1414,7 +1668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C48" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1515,7 +1769,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1048576">
+  <conditionalFormatting sqref="D2:D1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>6</formula>
     </cfRule>
@@ -1526,7 +1780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1544,35 +1798,35 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
         <v>48</v>
-      </c>
-      <c r="F1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" t="s">
-        <v>50</v>
       </c>
       <c r="I1" s="8">
         <f>SUM(F2:F35)</f>
         <v>259.54999999999995</v>
       </c>
       <c r="K1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L1">
         <f>SUM(D2:D99)</f>
@@ -1581,13 +1835,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -1603,13 +1857,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D3">
         <v>6</v>
@@ -1622,19 +1876,19 @@
         <f t="shared" ref="F3:F19" si="0">D3*E3</f>
         <v>18</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>63</v>
+      <c r="G3" s="10" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1647,17 +1901,17 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5">
         <v>12</v>
@@ -1673,13 +1927,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1695,13 +1949,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -1717,13 +1971,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -1739,13 +1993,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D9">
         <f>3*8</f>
@@ -1762,13 +2016,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D10">
         <f>3*4</f>
@@ -1785,13 +2039,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1807,13 +2061,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1829,13 +2083,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -1854,7 +2108,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1870,13 +2124,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D15">
         <f>3+3+3+3+3+3</f>
@@ -1893,10 +2147,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1912,10 +2166,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1931,10 +2185,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1950,10 +2204,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2043,7 +2297,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>'Led Pricing'!$A$1:$A$6</xm:f>
           </x14:formula1>
@@ -2056,10 +2310,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2067,40 +2321,40 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1">
         <v>3</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>86</v>
+      <c r="C1" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2">
         <v>2.35</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>84</v>
+      <c r="C2" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B3">
         <v>2.25</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>82</v>
+      <c r="C3" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4">
         <v>2.25</v>
@@ -2111,24 +2365,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B5">
         <v>2.25</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B6">
         <v>2.5</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Star Trek Ship Prints.xlsx
+++ b/Star Trek Ship Prints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\EAGLE\projects\DS9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFDF2095-73C3-49FD-87DB-16F971AB4DCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F912E996-2E4B-49E3-8FC6-5D656A020388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29205" yWindow="2220" windowWidth="19305" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9765" yWindow="840" windowWidth="19305" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ships" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="118">
   <si>
     <t>Length (m)</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Antares Xhosa</t>
   </si>
   <si>
-    <t>Groumall freighter</t>
-  </si>
-  <si>
     <t>K'vort BOP</t>
   </si>
   <si>
@@ -363,6 +360,39 @@
   </si>
   <si>
     <t>Faulty</t>
+  </si>
+  <si>
+    <t>Sliced</t>
+  </si>
+  <si>
+    <t>Too big</t>
+  </si>
+  <si>
+    <t>Dock Hole</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>Not a lot of detail on model</t>
+  </si>
+  <si>
+    <t>Dominion Battlecruiser</t>
+  </si>
+  <si>
+    <t>Maquis Raider</t>
+  </si>
+  <si>
+    <t>Earth Spacedock</t>
+  </si>
+  <si>
+    <t>Possibly 4600m diameter</t>
   </si>
 </sst>
 </file>
@@ -467,10 +497,10 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -479,27 +509,7 @@
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -786,11 +796,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,9 +814,10 @@
     <col min="9" max="9" width="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -816,14 +827,14 @@
       <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -835,16 +846,19 @@
         <v>3300</v>
       </c>
       <c r="L1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O1" t="s">
         <v>85</v>
       </c>
-      <c r="M1" t="s">
-        <v>88</v>
-      </c>
-      <c r="N1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -860,32 +874,38 @@
         <v>17.32069654</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" ref="C3:C57" si="0">(B3/$J$1)*1000</f>
-        <v>36.36363636363636</v>
+        <f t="shared" ref="C3:C56" si="0">(B3/$J$1)*1000</f>
+        <v>51.515151515151516</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D57" si="1">C3/10*0.393701</f>
-        <v>1.4316399999999998</v>
+        <f t="shared" ref="D3:D56" si="1">C3/10*0.393701</f>
+        <v>2.0281566666666668</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="M3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -901,7 +921,7 @@
         <v>3.6387516666666668</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -917,16 +937,19 @@
         <v>2.8990710000000002</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="N5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -942,13 +965,19 @@
         <v>5.5714656666666666</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="M6" t="s">
+        <v>111</v>
+      </c>
+      <c r="N6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -964,7 +993,7 @@
         <v>7.6473436666666679</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -979,8 +1008,11 @@
         <f t="shared" si="1"/>
         <v>2.7559070000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N8" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
@@ -996,7 +1028,7 @@
         <v>6.3851144000000017</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -1012,7 +1044,7 @@
         <v>8.1722783333333346</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
@@ -1028,13 +1060,13 @@
         <v>0.27559070000000002</v>
       </c>
       <c r="F11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
@@ -1049,11 +1081,17 @@
         <f t="shared" si="1"/>
         <v>5.2759513099999999</v>
       </c>
+      <c r="E12" t="s">
+        <v>108</v>
+      </c>
       <c r="F12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
@@ -1069,13 +1107,16 @@
         <v>4.4366523600000001</v>
       </c>
       <c r="F13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="N13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
@@ -1091,13 +1132,16 @@
         <v>2.9229316666666669</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="N14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1113,7 +1157,7 @@
         <v>3.161538333333334</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1129,7 +1173,7 @@
         <v>4.628969333333333</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1145,7 +1189,7 @@
         <v>8.1403050400000012</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>20</v>
       </c>
@@ -1162,7 +1206,7 @@
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1178,7 +1222,7 @@
         <v>12.42723171666667</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1194,7 +1238,7 @@
         <v>7.1581999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1210,7 +1254,7 @@
         <v>15.294687333333336</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
@@ -1225,11 +1269,20 @@
         <f t="shared" si="1"/>
         <v>4.628969333333333</v>
       </c>
+      <c r="E22" t="s">
+        <v>113</v>
+      </c>
       <c r="F22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="M22" t="s">
+        <v>110</v>
+      </c>
+      <c r="N22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1245,7 +1298,7 @@
         <v>5.7423080400000011</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>26</v>
       </c>
@@ -1261,13 +1314,19 @@
         <v>1.7992135699999998</v>
       </c>
       <c r="F24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="M24" t="s">
+        <v>111</v>
+      </c>
+      <c r="N24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>28</v>
       </c>
@@ -1284,7 +1343,7 @@
       </c>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>29</v>
       </c>
@@ -1300,10 +1359,16 @@
         <v>1.0233839933333335</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+      <c r="M26" t="s">
+        <v>110</v>
+      </c>
+      <c r="N26" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>30</v>
       </c>
@@ -1318,8 +1383,15 @@
         <f t="shared" si="1"/>
         <v>4.1040346666666672</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F27" s="9"/>
+      <c r="L27" t="s">
+        <v>107</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>31</v>
       </c>
@@ -1335,7 +1407,7 @@
         <v>6.2753553333333345</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1351,324 +1423,368 @@
         <v>2.6454321133333338</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
+      <c r="B30">
+        <v>487</v>
+      </c>
       <c r="C30" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>147.57575757575759</v>
       </c>
       <c r="D30" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+        <v>5.8100723333333342</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B31">
+        <v>678.36</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" si="0"/>
+        <v>205.56363636363636</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="1"/>
+        <v>8.0930609199999992</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>157.76</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="0"/>
+        <v>47.806060606060605</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8821293866666666</v>
+      </c>
+      <c r="F32" t="s">
+        <v>98</v>
+      </c>
+      <c r="N32" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>150</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" si="0"/>
+        <v>45.454545454545453</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="1"/>
+        <v>1.78955</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="L33" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="N33" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>270</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" si="0"/>
+        <v>81.818181818181813</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" si="1"/>
+        <v>3.22119</v>
+      </c>
+      <c r="F34" t="s">
+        <v>94</v>
+      </c>
+      <c r="L34" t="s">
+        <v>86</v>
+      </c>
+      <c r="M34" t="s">
+        <v>86</v>
+      </c>
+      <c r="N34" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35">
         <v>255.65</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C35" s="3">
         <f t="shared" si="0"/>
         <v>77.469696969696969</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D35" s="3">
         <f t="shared" si="1"/>
         <v>3.049989716666667</v>
       </c>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="F35" s="6"/>
+      <c r="L35" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="N35" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36">
+        <v>33.1</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="0"/>
+        <v>10.030303030303029</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="1"/>
+        <v>0.39489403333333334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B32">
-        <v>678.36</v>
-      </c>
-      <c r="C32" s="3">
-        <f t="shared" si="0"/>
-        <v>205.56363636363636</v>
-      </c>
-      <c r="D32" s="3">
-        <f t="shared" si="1"/>
-        <v>8.0930609199999992</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33">
-        <v>157.76</v>
-      </c>
-      <c r="C33" s="3">
-        <f t="shared" si="0"/>
-        <v>47.806060606060605</v>
-      </c>
-      <c r="D33" s="3">
-        <f t="shared" si="1"/>
-        <v>1.8821293866666666</v>
-      </c>
-      <c r="F33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34">
-        <v>150</v>
-      </c>
-      <c r="C34" s="3">
-        <f t="shared" si="0"/>
-        <v>45.454545454545453</v>
-      </c>
-      <c r="D34" s="3">
-        <f t="shared" si="1"/>
-        <v>1.78955</v>
-      </c>
-      <c r="F34" s="6"/>
-      <c r="L34" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35">
-        <v>270</v>
-      </c>
-      <c r="C35" s="3">
-        <f t="shared" si="0"/>
-        <v>81.818181818181813</v>
-      </c>
-      <c r="D35" s="3">
-        <f t="shared" si="1"/>
-        <v>3.22119</v>
-      </c>
-      <c r="F35" t="s">
-        <v>95</v>
-      </c>
-      <c r="L35" t="s">
-        <v>87</v>
-      </c>
-      <c r="M35" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36">
-        <v>255.65</v>
-      </c>
-      <c r="C36" s="3">
-        <f t="shared" si="0"/>
-        <v>77.469696969696969</v>
-      </c>
-      <c r="D36" s="3">
-        <f t="shared" si="1"/>
-        <v>3.049989716666667</v>
-      </c>
-      <c r="F36" s="6"/>
-      <c r="L36" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B37">
+        <v>3.6</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0909090909090911</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="1"/>
+        <v>4.2949200000000007E-2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>91</v>
+      </c>
+      <c r="L37" s="9"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="5">
+        <v>235</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" si="0"/>
+        <v>71.212121212121218</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" si="1"/>
+        <v>2.8036283333333336</v>
+      </c>
+      <c r="F38" t="s">
+        <v>94</v>
+      </c>
+      <c r="L38" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B37">
-        <v>33.1</v>
-      </c>
-      <c r="C37" s="3">
-        <f t="shared" si="0"/>
-        <v>10.030303030303029</v>
-      </c>
-      <c r="D37" s="3">
-        <f t="shared" si="1"/>
-        <v>0.39489403333333334</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38">
-        <v>3.6</v>
-      </c>
-      <c r="C38" s="3">
-        <f t="shared" si="0"/>
-        <v>1.0909090909090911</v>
-      </c>
-      <c r="D38" s="3">
-        <f t="shared" si="1"/>
-        <v>4.2949200000000007E-2</v>
-      </c>
-      <c r="E38" t="s">
-        <v>92</v>
-      </c>
-      <c r="L38" s="9"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="N38" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="5">
-        <v>235</v>
+      <c r="B39">
+        <v>481.32</v>
       </c>
       <c r="C39" s="3">
         <f t="shared" si="0"/>
-        <v>71.212121212121218</v>
+        <v>145.85454545454547</v>
       </c>
       <c r="D39" s="3">
         <f t="shared" si="1"/>
-        <v>2.8036283333333336</v>
-      </c>
-      <c r="F39" t="s">
-        <v>95</v>
-      </c>
-      <c r="L39" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5.7423080400000011</v>
+      </c>
+      <c r="N39" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>68</v>
       </c>
+      <c r="B40">
+        <v>3037</v>
+      </c>
       <c r="C40" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>920.30303030303025</v>
       </c>
       <c r="D40" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>69</v>
+        <v>36.232422333333339</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="B41">
-        <v>3037</v>
+        <v>24.23</v>
       </c>
       <c r="C41" s="3">
         <f t="shared" si="0"/>
-        <v>920.30303030303025</v>
+        <v>7.3424242424242427</v>
       </c>
       <c r="D41" s="3">
         <f t="shared" si="1"/>
-        <v>36.232422333333339</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.28907197666666667</v>
+      </c>
+      <c r="F41" t="s">
+        <v>97</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>89</v>
       </c>
       <c r="B42">
-        <v>24.23</v>
+        <v>21</v>
       </c>
       <c r="C42" s="3">
         <f t="shared" si="0"/>
-        <v>7.3424242424242427</v>
+        <v>6.3636363636363642</v>
       </c>
       <c r="D42" s="3">
         <f t="shared" si="1"/>
-        <v>0.28907197666666667</v>
+        <v>0.25053700000000007</v>
+      </c>
+      <c r="E42" t="s">
+        <v>90</v>
       </c>
       <c r="F42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43">
         <v>90</v>
       </c>
-      <c r="B43">
-        <v>21</v>
-      </c>
       <c r="C43" s="3">
         <f t="shared" si="0"/>
-        <v>6.3636363636363642</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="D43" s="3">
         <f t="shared" si="1"/>
-        <v>0.25053700000000007</v>
-      </c>
-      <c r="E43" t="s">
-        <v>91</v>
-      </c>
-      <c r="F43" t="s">
-        <v>98</v>
-      </c>
+        <v>1.0737300000000001</v>
+      </c>
+      <c r="F43" s="6"/>
       <c r="L43" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="N43" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="B44">
-        <v>90</v>
+        <v>639.75</v>
       </c>
       <c r="C44" s="3">
         <f t="shared" si="0"/>
-        <v>27.27272727272727</v>
+        <v>193.86363636363637</v>
       </c>
       <c r="D44" s="3">
         <f t="shared" si="1"/>
-        <v>1.0737300000000001</v>
-      </c>
-      <c r="F44" s="6"/>
-      <c r="L44" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+        <v>7.6324307500000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45">
+        <v>68.5</v>
+      </c>
       <c r="C45" s="3">
         <f t="shared" si="0"/>
+        <v>20.757575757575754</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="1"/>
+        <v>0.81722783333333315</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46">
+        <v>3810</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" si="0"/>
+        <v>1154.5454545454545</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" si="1"/>
+        <v>45.454570000000004</v>
+      </c>
+      <c r="E46" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C47" s="3">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D47" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C46" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D46" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C47" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D47" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C48" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1754,16 +1870,6 @@
         <v>0</v>
       </c>
       <c r="D56" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C57" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D57" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1798,35 +1904,35 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
         <v>47</v>
-      </c>
-      <c r="G1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" t="s">
-        <v>48</v>
       </c>
       <c r="I1" s="8">
         <f>SUM(F2:F35)</f>
         <v>259.54999999999995</v>
       </c>
       <c r="K1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L1">
         <f>SUM(D2:D99)</f>
@@ -1835,13 +1941,13 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -1857,13 +1963,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3">
         <v>6</v>
@@ -1876,19 +1982,19 @@
         <f t="shared" ref="F3:F19" si="0">D3*E3</f>
         <v>18</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>61</v>
+      <c r="G3" s="11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1901,17 +2007,17 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
         <v>51</v>
       </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5">
         <v>12</v>
@@ -1927,13 +2033,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
         <v>53</v>
       </c>
-      <c r="B6" t="s">
-        <v>54</v>
-      </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1949,13 +2055,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -1971,13 +2077,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -1993,13 +2099,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9">
         <f>3*8</f>
@@ -2016,13 +2122,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10">
         <f>3*4</f>
@@ -2039,13 +2145,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -2061,13 +2167,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2083,13 +2189,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -2108,7 +2214,7 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2124,13 +2230,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D15">
         <f>3+3+3+3+3+3</f>
@@ -2147,10 +2253,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2166,10 +2272,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2185,10 +2291,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2204,10 +2310,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2321,40 +2427,40 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1">
         <v>3</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>2.35</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>2.25</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4">
         <v>2.25</v>
@@ -2365,24 +2471,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5">
         <v>2.25</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6">
         <v>2.5</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Star Trek Ship Prints.xlsx
+++ b/Star Trek Ship Prints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\EAGLE\projects\DS9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F912E996-2E4B-49E3-8FC6-5D656A020388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DE59E2-8454-4658-A1C2-7739660E612F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9765" yWindow="840" windowWidth="19305" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29325" yWindow="1650" windowWidth="32205" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ships" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="118">
   <si>
     <t>Length (m)</t>
   </si>
@@ -509,7 +509,7 @@
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -517,6 +517,14 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -800,7 +808,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E47" sqref="E47"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,85 +867,100 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1451.82</v>
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>170</v>
       </c>
       <c r="C2" s="3">
-        <f>(B2/$J$1)*1000</f>
-        <v>439.94545454545454</v>
+        <f t="shared" ref="C2:C33" si="0">(B2/$J$1)*1000</f>
+        <v>51.515151515151516</v>
       </c>
       <c r="D2" s="3">
-        <f>C2/10*0.393701</f>
-        <v>17.32069654</v>
+        <f t="shared" ref="D2:D33" si="1">C2/10*0.393701</f>
+        <v>2.0281566666666668</v>
+      </c>
+      <c r="E2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>170</v>
+        <v>243</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" ref="C3:C56" si="0">(B3/$J$1)*1000</f>
-        <v>51.515151515151516</v>
+        <f t="shared" si="0"/>
+        <v>73.63636363636364</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D56" si="1">C3/10*0.393701</f>
-        <v>2.0281566666666668</v>
-      </c>
-      <c r="E3" t="s">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>2.8990710000000002</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L3" t="s">
         <v>86</v>
       </c>
       <c r="M3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N3" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
+      <c r="A4" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>305</v>
+        <v>467</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" si="0"/>
-        <v>92.424242424242422</v>
+        <v>141.5151515151515</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="1"/>
-        <v>3.6387516666666668</v>
+        <v>5.5714656666666666</v>
+      </c>
+      <c r="F4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" t="s">
+        <v>111</v>
+      </c>
+      <c r="O4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>23.1</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>243</v>
-      </c>
-      <c r="C5" s="3">
-        <f t="shared" si="0"/>
-        <v>73.63636363636364</v>
-      </c>
       <c r="D5" s="3">
         <f t="shared" si="1"/>
-        <v>2.8990710000000002</v>
+        <v>0.27559070000000002</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s">
         <v>86</v>
@@ -951,21 +974,21 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>467</v>
+        <v>371.88</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="0"/>
-        <v>141.5151515151515</v>
+        <v>112.69090909090909</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" si="1"/>
-        <v>5.5714656666666666</v>
+        <v>4.4366523600000001</v>
       </c>
       <c r="F6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>101</v>
@@ -976,138 +999,169 @@
       <c r="N6" t="s">
         <v>111</v>
       </c>
+      <c r="O6" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
+      <c r="A7" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>641</v>
+        <v>245</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" si="0"/>
-        <v>194.24242424242425</v>
+        <v>74.242424242424249</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" si="1"/>
-        <v>7.6473436666666679</v>
+        <v>2.9229316666666669</v>
+      </c>
+      <c r="F7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
+      <c r="A8" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B8">
-        <v>231</v>
+        <v>150.81</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>45.699999999999996</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="1"/>
-        <v>2.7559070000000001</v>
+        <v>1.7992135699999998</v>
+      </c>
+      <c r="F8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="s">
+        <v>111</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>11</v>
+      <c r="A9" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="B9">
-        <v>535.20000000000005</v>
+        <v>85.78</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" si="0"/>
-        <v>162.18181818181822</v>
+        <v>25.993939393939396</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" si="1"/>
-        <v>6.3851144000000017</v>
+        <v>1.0233839933333335</v>
+      </c>
+      <c r="O9" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
+      <c r="A10" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B10">
-        <v>685</v>
+        <v>157.76</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" si="0"/>
-        <v>207.57575757575759</v>
+        <v>47.806060606060605</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" si="1"/>
-        <v>8.1722783333333346</v>
+        <v>1.8821293866666666</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B11">
-        <v>23.1</v>
+        <v>150</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>45.454545454545453</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" si="1"/>
-        <v>0.27559070000000002</v>
-      </c>
-      <c r="F11" t="s">
-        <v>97</v>
-      </c>
+        <v>1.78955</v>
+      </c>
+      <c r="F11" s="6"/>
       <c r="L11" s="9" t="s">
         <v>105</v>
       </c>
+      <c r="M11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>14</v>
+      <c r="A12" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B12">
-        <v>442.23</v>
+        <v>270</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" si="0"/>
-        <v>134.0090909090909</v>
+        <v>81.818181818181813</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="1"/>
-        <v>5.2759513099999999</v>
-      </c>
-      <c r="E12" t="s">
-        <v>108</v>
+        <v>3.22119</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="M12" t="s">
+        <v>111</v>
       </c>
       <c r="N12" s="9" t="s">
         <v>101</v>
       </c>
+      <c r="O12" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="B13">
-        <v>371.88</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" si="0"/>
-        <v>112.69090909090909</v>
+        <v>6.3636363636363642</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="1"/>
-        <v>4.4366523600000001</v>
+        <v>0.25053700000000007</v>
+      </c>
+      <c r="E13" t="s">
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L13" s="9" t="s">
         <v>86</v>
@@ -1118,159 +1172,165 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="B14">
-        <v>245</v>
+        <v>255.65</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" si="0"/>
-        <v>74.242424242424249</v>
+        <v>77.469696969696969</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" si="1"/>
-        <v>2.9229316666666669</v>
-      </c>
-      <c r="F14" t="s">
-        <v>102</v>
-      </c>
+        <v>3.049989716666667</v>
+      </c>
+      <c r="F14" s="6"/>
       <c r="L14" s="9" t="s">
         <v>86</v>
       </c>
+      <c r="M14" t="s">
+        <v>111</v>
+      </c>
       <c r="N14" t="s">
         <v>111</v>
       </c>
+      <c r="O14" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>265</v>
+      <c r="A15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="5">
+        <v>235</v>
       </c>
       <c r="C15" s="3">
         <f t="shared" si="0"/>
-        <v>80.303030303030312</v>
+        <v>71.212121212121218</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="1"/>
-        <v>3.161538333333334</v>
+        <v>2.8036283333333336</v>
+      </c>
+      <c r="F15" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>388</v>
+        <v>3</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1451.82</v>
       </c>
       <c r="C16" s="3">
         <f t="shared" si="0"/>
-        <v>117.57575757575756</v>
+        <v>439.94545454545454</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" si="1"/>
-        <v>4.628969333333333</v>
+        <v>17.32069654</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B17">
-        <v>682.32</v>
+        <v>305</v>
       </c>
       <c r="C17" s="3">
         <f t="shared" si="0"/>
-        <v>206.76363636363638</v>
+        <v>92.424242424242422</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="1"/>
-        <v>8.1403050400000012</v>
+        <v>3.6387516666666668</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>20</v>
+      <c r="A18" t="s">
+        <v>9</v>
       </c>
       <c r="B18">
-        <v>255.65</v>
+        <v>641</v>
       </c>
       <c r="C18" s="3">
         <f t="shared" si="0"/>
-        <v>77.469696969696969</v>
+        <v>194.24242424242425</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" si="1"/>
-        <v>3.049989716666667</v>
-      </c>
-      <c r="F18" s="6"/>
+        <v>7.6473436666666679</v>
+      </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B19">
-        <v>1041.6500000000001</v>
+        <v>231</v>
       </c>
       <c r="C19" s="3">
         <f t="shared" si="0"/>
-        <v>315.65151515151518</v>
+        <v>70</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="1"/>
-        <v>12.42723171666667</v>
+        <v>2.7559070000000001</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>22</v>
+      <c r="A20" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="B20">
-        <v>600</v>
+        <v>535.20000000000005</v>
       </c>
       <c r="C20" s="3">
         <f t="shared" si="0"/>
-        <v>181.81818181818181</v>
+        <v>162.18181818181822</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" si="1"/>
-        <v>7.1581999999999999</v>
+        <v>6.3851144000000017</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>23</v>
+      <c r="A21" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>1282</v>
+        <v>685</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" si="0"/>
-        <v>388.4848484848485</v>
+        <v>207.57575757575759</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="1"/>
-        <v>15.294687333333336</v>
+        <v>8.1722783333333346</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>24</v>
+      <c r="A22" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>388</v>
+        <v>442.23</v>
       </c>
       <c r="C22" s="3">
         <f t="shared" si="0"/>
-        <v>117.57575757575756</v>
+        <v>134.0090909090909</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" si="1"/>
-        <v>4.628969333333333</v>
+        <v>5.2759513099999999</v>
       </c>
       <c r="E22" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F22" t="s">
         <v>96</v>
@@ -1284,37 +1344,34 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B23">
-        <v>481.32</v>
+        <v>265</v>
       </c>
       <c r="C23" s="3">
         <f t="shared" si="0"/>
-        <v>145.85454545454547</v>
+        <v>80.303030303030312</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="1"/>
-        <v>5.7423080400000011</v>
+        <v>3.161538333333334</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>26</v>
+      <c r="A24" t="s">
+        <v>18</v>
       </c>
       <c r="B24">
-        <v>150.81</v>
+        <v>388</v>
       </c>
       <c r="C24" s="3">
         <f t="shared" si="0"/>
-        <v>45.699999999999996</v>
+        <v>117.57575757575756</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" si="1"/>
-        <v>1.7992135699999998</v>
-      </c>
-      <c r="F24" t="s">
-        <v>99</v>
+        <v>4.628969333333333</v>
       </c>
       <c r="L24" s="9" t="s">
         <v>105</v>
@@ -1327,37 +1384,37 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>28</v>
+      <c r="A25" t="s">
+        <v>19</v>
       </c>
       <c r="B25">
-        <v>371.88</v>
+        <v>682.32</v>
       </c>
       <c r="C25" s="3">
         <f t="shared" si="0"/>
-        <v>112.69090909090909</v>
+        <v>206.76363636363638</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" si="1"/>
-        <v>4.4366523600000001</v>
-      </c>
-      <c r="F25" s="6"/>
+        <v>8.1403050400000012</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>29</v>
+      <c r="A26" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="B26">
-        <v>85.78</v>
+        <v>255.65</v>
       </c>
       <c r="C26" s="3">
         <f t="shared" si="0"/>
-        <v>25.993939393939396</v>
+        <v>77.469696969696969</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="1"/>
-        <v>1.0233839933333335</v>
-      </c>
+        <v>3.049989716666667</v>
+      </c>
+      <c r="F26" s="6"/>
       <c r="L26" s="9" t="s">
         <v>105</v>
       </c>
@@ -1369,21 +1426,20 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>30</v>
+      <c r="A27" t="s">
+        <v>21</v>
       </c>
       <c r="B27">
-        <v>344</v>
+        <v>1041.6500000000001</v>
       </c>
       <c r="C27" s="3">
         <f t="shared" si="0"/>
-        <v>104.24242424242425</v>
+        <v>315.65151515151518</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" si="1"/>
-        <v>4.1040346666666672</v>
-      </c>
-      <c r="F27" s="9"/>
+        <v>12.42723171666667</v>
+      </c>
       <c r="L27" t="s">
         <v>107</v>
       </c>
@@ -1392,35 +1448,35 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>31</v>
+      <c r="A28" t="s">
+        <v>22</v>
       </c>
       <c r="B28">
-        <v>526</v>
+        <v>600</v>
       </c>
       <c r="C28" s="3">
         <f t="shared" si="0"/>
-        <v>159.39393939393941</v>
+        <v>181.81818181818181</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" si="1"/>
-        <v>6.2753553333333345</v>
+        <v>7.1581999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B29">
-        <v>221.74</v>
+        <v>1282</v>
       </c>
       <c r="C29" s="3">
         <f t="shared" si="0"/>
-        <v>67.193939393939402</v>
+        <v>388.4848484848485</v>
       </c>
       <c r="D29" s="3">
         <f t="shared" si="1"/>
-        <v>2.6454321133333338</v>
+        <v>15.294687333333336</v>
       </c>
       <c r="L29" s="9" t="s">
         <v>101</v>
@@ -1430,75 +1486,79 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>33</v>
+      <c r="A30" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B30">
-        <v>487</v>
+        <v>388</v>
       </c>
       <c r="C30" s="3">
         <f t="shared" si="0"/>
-        <v>147.57575757575759</v>
+        <v>117.57575757575756</v>
       </c>
       <c r="D30" s="3">
         <f t="shared" si="1"/>
-        <v>5.8100723333333342</v>
+        <v>4.628969333333333</v>
+      </c>
+      <c r="E30" t="s">
+        <v>113</v>
+      </c>
+      <c r="F30" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>37</v>
+      <c r="A31" t="s">
+        <v>25</v>
       </c>
       <c r="B31">
-        <v>678.36</v>
+        <v>481.32</v>
       </c>
       <c r="C31" s="3">
         <f t="shared" si="0"/>
-        <v>205.56363636363636</v>
+        <v>145.85454545454547</v>
       </c>
       <c r="D31" s="3">
         <f t="shared" si="1"/>
-        <v>8.0930609199999992</v>
+        <v>5.7423080400000011</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B32">
-        <v>157.76</v>
+        <v>371.88</v>
       </c>
       <c r="C32" s="3">
         <f t="shared" si="0"/>
-        <v>47.806060606060605</v>
+        <v>112.69090909090909</v>
       </c>
       <c r="D32" s="3">
         <f t="shared" si="1"/>
-        <v>1.8821293866666666</v>
-      </c>
-      <c r="F32" t="s">
-        <v>98</v>
-      </c>
+        <v>4.4366523600000001</v>
+      </c>
+      <c r="F32" s="6"/>
       <c r="N32" s="9" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B33">
-        <v>150</v>
+        <v>344</v>
       </c>
       <c r="C33" s="3">
         <f t="shared" si="0"/>
-        <v>45.454545454545453</v>
+        <v>104.24242424242425</v>
       </c>
       <c r="D33" s="3">
         <f t="shared" si="1"/>
-        <v>1.78955</v>
-      </c>
-      <c r="F33" s="6"/>
+        <v>4.1040346666666672</v>
+      </c>
+      <c r="F33" s="9"/>
       <c r="L33" s="9" t="s">
         <v>106</v>
       </c>
@@ -1507,22 +1567,19 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>36</v>
+      <c r="A34" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B34">
-        <v>270</v>
+        <v>526</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" si="0"/>
-        <v>81.818181818181813</v>
+        <f t="shared" ref="C34:C65" si="2">(B34/$J$1)*1000</f>
+        <v>159.39393939393941</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="1"/>
-        <v>3.22119</v>
-      </c>
-      <c r="F34" t="s">
-        <v>94</v>
+        <f t="shared" ref="D34:D65" si="3">C34/10*0.393701</f>
+        <v>6.2753553333333345</v>
       </c>
       <c r="L34" t="s">
         <v>86</v>
@@ -1535,21 +1592,20 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>103</v>
+      <c r="A35" t="s">
+        <v>32</v>
       </c>
       <c r="B35">
-        <v>255.65</v>
+        <v>221.74</v>
       </c>
       <c r="C35" s="3">
-        <f t="shared" si="0"/>
-        <v>77.469696969696969</v>
+        <f t="shared" si="2"/>
+        <v>67.193939393939402</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" si="1"/>
-        <v>3.049989716666667</v>
-      </c>
-      <c r="F35" s="6"/>
+        <f t="shared" si="3"/>
+        <v>2.6454321133333338</v>
+      </c>
       <c r="L35" s="9" t="s">
         <v>86</v>
       </c>
@@ -1559,57 +1615,51 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>487</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="2"/>
+        <v>147.57575757575759</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" si="3"/>
+        <v>5.8100723333333342</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37">
+        <v>678.36</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" si="2"/>
+        <v>205.56363636363636</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="3"/>
+        <v>8.0930609199999992</v>
+      </c>
+      <c r="L37" s="9"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>104</v>
       </c>
-      <c r="B36">
+      <c r="B38">
         <v>33.1</v>
       </c>
-      <c r="C36" s="3">
-        <f t="shared" si="0"/>
+      <c r="C38" s="3">
+        <f t="shared" si="2"/>
         <v>10.030303030303029</v>
       </c>
-      <c r="D36" s="3">
-        <f t="shared" si="1"/>
+      <c r="D38" s="3">
+        <f t="shared" si="3"/>
         <v>0.39489403333333334</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37">
-        <v>3.6</v>
-      </c>
-      <c r="C37" s="3">
-        <f t="shared" si="0"/>
-        <v>1.0909090909090911</v>
-      </c>
-      <c r="D37" s="3">
-        <f t="shared" si="1"/>
-        <v>4.2949200000000007E-2</v>
-      </c>
-      <c r="E37" t="s">
-        <v>91</v>
-      </c>
-      <c r="L37" s="9"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="5">
-        <v>235</v>
-      </c>
-      <c r="C38" s="3">
-        <f t="shared" si="0"/>
-        <v>71.212121212121218</v>
-      </c>
-      <c r="D38" s="3">
-        <f t="shared" si="1"/>
-        <v>2.8036283333333336</v>
-      </c>
-      <c r="F38" t="s">
-        <v>94</v>
       </c>
       <c r="L38" s="9" t="s">
         <v>105</v>
@@ -1620,18 +1670,21 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="B39">
-        <v>481.32</v>
+        <v>3.6</v>
       </c>
       <c r="C39" s="3">
-        <f t="shared" si="0"/>
-        <v>145.85454545454547</v>
+        <f t="shared" si="2"/>
+        <v>1.0909090909090911</v>
       </c>
       <c r="D39" s="3">
-        <f t="shared" si="1"/>
-        <v>5.7423080400000011</v>
+        <f t="shared" si="3"/>
+        <v>4.2949200000000007E-2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>91</v>
       </c>
       <c r="N39" s="9" t="s">
         <v>101</v>
@@ -1639,59 +1692,53 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40">
+        <v>481.32</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" si="2"/>
+        <v>145.85454545454547</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="3"/>
+        <v>5.7423080400000011</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>68</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>3037</v>
       </c>
-      <c r="C40" s="3">
-        <f t="shared" si="0"/>
+      <c r="C41" s="3">
+        <f t="shared" si="2"/>
         <v>920.30303030303025</v>
       </c>
-      <c r="D40" s="3">
-        <f t="shared" si="1"/>
+      <c r="D41" s="3">
+        <f t="shared" si="3"/>
         <v>36.232422333333339</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41">
-        <v>24.23</v>
-      </c>
-      <c r="C41" s="3">
-        <f t="shared" si="0"/>
-        <v>7.3424242424242427</v>
-      </c>
-      <c r="D41" s="3">
-        <f t="shared" si="1"/>
-        <v>0.28907197666666667</v>
-      </c>
-      <c r="F41" t="s">
-        <v>97</v>
       </c>
       <c r="L41" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>89</v>
+      <c r="A42" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="B42">
-        <v>21</v>
+        <v>24.23</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" si="0"/>
-        <v>6.3636363636363642</v>
+        <f t="shared" si="2"/>
+        <v>7.3424242424242427</v>
       </c>
       <c r="D42" s="3">
-        <f t="shared" si="1"/>
-        <v>0.25053700000000007</v>
-      </c>
-      <c r="E42" t="s">
-        <v>90</v>
+        <f t="shared" si="3"/>
+        <v>0.28907197666666667</v>
       </c>
       <c r="F42" t="s">
         <v>97</v>
@@ -1708,11 +1755,11 @@
         <v>90</v>
       </c>
       <c r="C43" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>27.27272727272727</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0737300000000001</v>
       </c>
       <c r="F43" s="6"/>
@@ -1731,11 +1778,11 @@
         <v>639.75</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>193.86363636363637</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.6324307500000002</v>
       </c>
     </row>
@@ -1747,11 +1794,11 @@
         <v>68.5</v>
       </c>
       <c r="C45" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20.757575757575754</v>
       </c>
       <c r="D45" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.81722783333333315</v>
       </c>
     </row>
@@ -1763,11 +1810,11 @@
         <v>3810</v>
       </c>
       <c r="C46" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1154.5454545454545</v>
       </c>
       <c r="D46" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>45.454570000000004</v>
       </c>
       <c r="E46" t="s">
@@ -1776,105 +1823,108 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C47" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C48" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D48" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D49" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D50" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D51" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D52" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D53" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D54" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C55" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D55" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C56" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D56" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F56">
+    <sortCondition sortBy="cellColor" ref="A2:A56" dxfId="1"/>
+  </sortState>
   <conditionalFormatting sqref="D2:D1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>6</formula>
